--- a/Excel/a.xlsx
+++ b/Excel/a.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>数字索引</t>
   </si>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -284,6 +288,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -296,12 +303,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,7 +388,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -587,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -637,7 +647,7 @@
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>10</v>
@@ -670,64 +680,77 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="9">
-        <v>100</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="A6" s="9">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
         <v>100</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="8">
         <v>100</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8">
+        <v>100</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:E3">
       <formula1>"Int,String,Float,Int[],Map[String]Int"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:XFD2">
       <formula1>"C,S,CS"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:B5 D5:E5">
+      <formula1>"KEY, ,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+      <formula1>"KEY"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/a.xlsx
+++ b/Excel/a.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>数字索引</t>
   </si>
@@ -51,51 +51,52 @@
     <t>String</t>
   </si>
   <si>
+    <t>整型数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, 2, 3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Int</t>
-  </si>
-  <si>
-    <t>Int[]</t>
-  </si>
-  <si>
-    <t>整型数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1, 2, 3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List[Int]</t>
   </si>
 </sst>
 </file>
@@ -600,7 +601,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -625,62 +626,64 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
+      <c r="A5" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -700,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -717,7 +720,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -734,23 +737,20 @@
         <v>9</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:E3">
-      <formula1>"Int,String,Float,Int[],Map[String]Int"</formula1>
-    </dataValidation>
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:XFD2">
       <formula1>"C,S,CS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:B5 D5:E5">
-      <formula1>"KEY, ,"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
+      <formula1>"KEY"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
-      <formula1>"KEY"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:E3">
+      <formula1>"Int,String,Float,List[Int],List[String],List[Float]"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/a.xlsx
+++ b/Excel/a.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>数字索引</t>
   </si>
@@ -81,9 +81,6 @@
     <t>CS</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,6 +94,20 @@
   </si>
   <si>
     <t>List[Int]</t>
+  </si>
+  <si>
+    <t>LevelAP1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelAP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List[Float]</t>
+  </si>
+  <si>
+    <t>List[String]</t>
   </si>
 </sst>
 </file>
@@ -598,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -609,10 +620,10 @@
     <col min="2" max="2" width="36.5" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="21.75" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="5" max="13" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -628,8 +639,20 @@
       <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -643,29 +666,53 @@
         <v>17</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>12</v>
@@ -679,17 +726,37 @@
       <c r="E4" s="12" t="s">
         <v>15</v>
       </c>
+      <c r="F4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -705,8 +772,20 @@
       <c r="E6" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="F6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>2</v>
       </c>
@@ -722,8 +801,20 @@
       <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="F7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>3</v>
       </c>
@@ -739,6 +830,18 @@
       <c r="E8" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="F8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -749,8 +852,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5">
       <formula1>"KEY"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:E3">
-      <formula1>"Int,String,Float,List[Int],List[String],List[Float]"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:M3">
+      <formula1>"Int,String,Float,List[Int],List[String],List[Float],Map[int|int],Map[int|float],Map[int|string],Map[string|int],Map[string|float],Map[string|string]"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/a.xlsx
+++ b/Excel/a.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>数字索引</t>
   </si>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1, 2, 3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LevelAP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,18 +92,8 @@
     <t>List[Int]</t>
   </si>
   <si>
-    <t>LevelAP1</t>
+    <t>1;2;3</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelAP2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List[Float]</t>
-  </si>
-  <si>
-    <t>List[String]</t>
   </si>
 </sst>
 </file>
@@ -612,7 +598,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -639,12 +625,8 @@
       <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -654,26 +636,22 @@
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -683,26 +661,22 @@
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -712,26 +686,22 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -741,7 +711,7 @@
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -770,14 +740,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>14</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -798,15 +764,11 @@
       <c r="D7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="E7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -827,15 +789,11 @@
       <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="E8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
